--- a/assets/spreadsheets/Smart-Wiz Comparison.xlsx
+++ b/assets/spreadsheets/Smart-Wiz Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrg\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92756EBC-8089-4A47-9C78-CF6A55A797E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627EF256-03F0-4C37-B328-5D37EE5CA78C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8CA779CF-DCD0-4E48-AC09-286D1C5F0E63}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{8CA779CF-DCD0-4E48-AC09-286D1C5F0E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Smart Wiz</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t>https://www.webstaurantstore.com/lavex-janitorial-18-x-42-stainless-steel-urinal-partition/712SSUP1842.html?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=GoogleShopping&amp;gclid=Cj0KCQiArvX_BRCyARIsAKsnTxPf58u222GWr3e7fzBijckcX7zRHZ80oTnAC5kudYBnFfa0nwyN6kYaAp2LEALw_wcB, https://www.grainger.com/category/plumbing/bathroom-,Dave Meadows</t>
+  </si>
+  <si>
+    <t>Panel Replacement</t>
+  </si>
+  <si>
+    <t>Tile Replacement</t>
+  </si>
+  <si>
+    <t>Urinal Replacement</t>
+  </si>
+  <si>
+    <t>Panel Replacement Years</t>
+  </si>
+  <si>
+    <t>Urinal Replacement Years</t>
+  </si>
+  <si>
+    <t>Tile Replacement Years</t>
   </si>
 </sst>
 </file>
@@ -537,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DAEC1C-18BB-4C32-9536-6F8D1F24D5E8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,28 +830,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B2+B3+B4</f>
+        <v>3050</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
+        <f>B7+B8+B9</f>
+        <v>472.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B5+B6</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B24" s="4">
         <v>52</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F24" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
-        <f>SUM(B14+B15*B18+B16*B18)</f>
-        <v>1393</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <f>SUM(F14+F15*F18+F16*F18)</f>
+      <c r="B25" s="5">
+        <f>SUM(B14+B15*B24+B16*B24+B17/B21+B18/B22+B19/B23)</f>
+        <v>1661.1666666666665</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <f>SUM(F14+F15*F24+F16*F24)</f>
         <v>93</v>
       </c>
     </row>

--- a/assets/spreadsheets/Smart-Wiz Comparison.xlsx
+++ b/assets/spreadsheets/Smart-Wiz Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrg\Documents\smart-step.github.io\assets\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627EF256-03F0-4C37-B328-5D37EE5CA78C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{629320EB-AC81-4523-97E7-06E53DC1D28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{8CA779CF-DCD0-4E48-AC09-286D1C5F0E63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8CA779CF-DCD0-4E48-AC09-286D1C5F0E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>Smart Wiz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>https://www.menshealth.com/trending-news/a19547775/why-your-home-needs-a-urinal/</t>
   </si>
@@ -66,33 +63,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Startup</t>
-  </si>
-  <si>
     <t>https://www.energy.gov/eere/femp/energy-cost-calculator-urinals</t>
   </si>
   <si>
     <t>https://www.cleanermatch.com/commercial/cost-of-commercial-restroom-sanitation.html#:~:text=Commercial%20and%20office%20bathroom%20cleaning,the%20visit%20or%20the%20fixture.</t>
   </si>
   <si>
-    <t>Yearly Cost</t>
-  </si>
-  <si>
-    <t>Water (per year)</t>
-  </si>
-  <si>
-    <t>Clean (per clean)</t>
-  </si>
-  <si>
-    <t>Divider Clean (per clean)</t>
-  </si>
-  <si>
-    <t>Cleans per year</t>
-  </si>
-  <si>
     <t>https://www.homeadvisor.com/cost/flooring/install-ceramic-or-porcelain-tile/</t>
   </si>
   <si>
@@ -105,15 +81,6 @@
     <t>Tile Other Materials</t>
   </si>
   <si>
-    <t>Traditional Urinal Minimum</t>
-  </si>
-  <si>
-    <t>Traditional Urinal Approximate</t>
-  </si>
-  <si>
-    <t>Traditional Urinal Maximum</t>
-  </si>
-  <si>
     <t>https://www.plumbersstock.com/sloan-weus-10021402-wall-hung-urinal-fixture-w-royal-186-025-smo.html, https://www.homedepot.com/b/Bath-Urinals/Commercial/N-5yc1vZbzblZ1z118fv?sortorder=asc&amp;sortby=price, https://www.menshealth.com/trending-news/a19547775/why-your-home-needs-a-urinal/</t>
   </si>
   <si>
@@ -123,22 +90,49 @@
     <t>https://www.webstaurantstore.com/lavex-janitorial-18-x-42-stainless-steel-urinal-partition/712SSUP1842.html?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=GoogleShopping&amp;gclid=Cj0KCQiArvX_BRCyARIsAKsnTxPf58u222GWr3e7fzBijckcX7zRHZ80oTnAC5kudYBnFfa0nwyN6kYaAp2LEALw_wcB, https://www.grainger.com/category/plumbing/bathroom-,Dave Meadows</t>
   </si>
   <si>
-    <t>Panel Replacement</t>
-  </si>
-  <si>
-    <t>Tile Replacement</t>
-  </si>
-  <si>
-    <t>Urinal Replacement</t>
-  </si>
-  <si>
-    <t>Panel Replacement Years</t>
-  </si>
-  <si>
-    <t>Urinal Replacement Years</t>
-  </si>
-  <si>
-    <t>Tile Replacement Years</t>
+    <t>Urinal Minimum</t>
+  </si>
+  <si>
+    <t>Urinal Maximum</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Smart-Step Urinal</t>
+  </si>
+  <si>
+    <t>Insustry Average Urinal Cost</t>
+  </si>
+  <si>
+    <t>Annual Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Usage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaning &amp; Maintenance  </t>
+  </si>
+  <si>
+    <t>Partitions Clean &amp; Maintain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Replacement Costs</t>
+  </si>
+  <si>
+    <t>Tile, Install &amp; Other (10 years)</t>
+  </si>
+  <si>
+    <t>Partitions &amp; Install (10 years)</t>
+  </si>
+  <si>
+    <t>Delivery (s/r)</t>
+  </si>
+  <si>
+    <t>Startup Costs</t>
   </si>
 </sst>
 </file>
@@ -149,7 +143,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +175,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +203,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,19 +256,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,45 +595,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DAEC1C-18BB-4C32-9536-6F8D1F24D5E8}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>0</v>
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>550</v>
       </c>
       <c r="C2" s="1">
@@ -603,57 +645,57 @@
         <v>2000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2000</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1650</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2500</v>
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>350</v>
       </c>
       <c r="C3" s="1">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>450</v>
+      </c>
+      <c r="C4" s="1">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>800</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>350</v>
       </c>
       <c r="C5" s="1">
@@ -663,17 +705,17 @@
         <v>925</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
         <v>150</v>
       </c>
       <c r="C6" s="1">
@@ -683,237 +725,261 @@
         <v>400</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7">
         <f>(1.5*6*2.5)+(1.5*2.5*3)</f>
         <v>33.75</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <f>(0.5*6*2.5)+(0.5*2.5*3)</f>
         <v>11.25</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <f>(15*6*2.5)+(15*2.5*3)</f>
         <v>337.5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
         <f>(6.5*6*2.5)+(6.5*2.5*3)</f>
         <v>146.25</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <f>(6*6*2.5)+(6*2.5*3)</f>
         <v>135</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <f>(9*6*2.5)+(9*2.5*3)</f>
         <v>202.5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7">
         <f>(13*6*2.5)+(13*2.5*3)</f>
         <v>292.5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <f>(4*6*2.5)+(4*2.5*3)</f>
         <v>90</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <f>(32*6*2.5)+(32*2.5*3)</f>
         <v>720</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13">
+        <f>SUM(B3:B9)</f>
+        <v>1772.5</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" ref="C11:D11" si="0">SUM(C3:C9)</f>
+        <v>946.25</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>3985</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13">
+        <f>SUM(F2:F9)</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <f>SUM(B3:B9)</f>
-        <v>3472.5</v>
-      </c>
-      <c r="C11" s="5">
-        <f t="shared" ref="C11:D11" si="0">SUM(C3:C9)</f>
-        <v>2446.25</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>5585</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5">
-        <f>SUM(F2:F9)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="F14" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <v>250</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="13">
+        <v>493</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="13">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3">
+        <v>472</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1">
-        <f>B2+B3+B4</f>
-        <v>3050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11">
-        <f>B7+B8+B9</f>
-        <v>472.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1">
-        <f>B5+B6</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="F21">
+      <c r="B23" s="7">
+        <v>120</v>
+      </c>
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>15</v>
-      </c>
-      <c r="F22">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1092</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4">
-        <v>52</v>
-      </c>
-      <c r="F24" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="5">
-        <f>SUM(B14+B15*B24+B16*B24+B17/B21+B18/B22+B19/B23)</f>
-        <v>1661.1666666666665</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
-        <f>SUM(F14+F15*F24+F16*F24)</f>
-        <v>93</v>
-      </c>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="17">
+        <v>3358</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -924,12 +990,12 @@
     <hyperlink ref="E3" r:id="rId5" xr:uid="{4FD3C175-BE32-402D-8477-D53CC39A3A00}"/>
     <hyperlink ref="E15" r:id="rId6" location=":~:text=Commercial%20and%20office%20bathroom%20cleaning,the%20visit%20or%20the%20fixture." xr:uid="{613807C4-06BC-45C2-963F-C8D33A276FC6}"/>
     <hyperlink ref="E14" r:id="rId7" xr:uid="{52E148DB-3F09-4104-8A18-93E98631256A}"/>
-    <hyperlink ref="E16" r:id="rId8" location=":~:text=Commercial%20and%20office%20bathroom%20cleaning,the%20visit%20or%20the%20fixture." xr:uid="{1BD0FC2F-A428-44C3-B125-8660BF2221B3}"/>
+    <hyperlink ref="E21" r:id="rId8" location=":~:text=Commercial%20and%20office%20bathroom%20cleaning,the%20visit%20or%20the%20fixture." xr:uid="{1BD0FC2F-A428-44C3-B125-8660BF2221B3}"/>
     <hyperlink ref="E7" r:id="rId9" xr:uid="{19C35CAD-F2AA-4956-9755-D648FB50AEE7}"/>
     <hyperlink ref="E9" r:id="rId10" xr:uid="{596CB164-84CD-4F5D-98EF-D9F4C91CE54A}"/>
     <hyperlink ref="E8" r:id="rId11" xr:uid="{B0CCA5A6-D9E2-454B-8AB7-C570031C1341}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>